--- a/biology/Médecine/Butorphanol/Butorphanol.xlsx
+++ b/biology/Médecine/Butorphanol/Butorphanol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le butorphanol est un dérivé agoniste-antagoniste opioïde ayant une activité μ-antagoniste, κ-agoniste et σ-agoniste, contrairement à la plupart des opiacés, lui permettant d'être utilisé comme analgésique.
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action κ-agoniste du butorphanol lui confère analgésie et sédation légère (sédanalgésie) tandis que son antagonisme sur les récepteurs opioïdes μ le rend moins émétisant, moins dépresseur cardio-respiratoire et moins hypothermisant que la morphine et ses dérivés μ-agonistes.
 En oto-rhino-laryngologie, le butorphanol est utilisé comme anti-tussif central car il inhibe le centre réflexe de la toux localisé dans la moelle allongée (Medulla oblongata).
@@ -544,7 +558,9 @@
           <t>Utilisation / Posologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine humaine, le butorphanol est 7 fois plus analgésique que la morphine et 100 fois plus anti-tussif que la codéine. Son action μ-antagoniste le préserve de toute dépendance aux morphiniques et lui donne une indication supplémentaire en toxicologie, puisqu'il peut être utilisé pour sevrer les morphinomanes.
 En médecine vétérinaire, le butorphanol est moins analgésique que la morphine. Il est classé dans les antalgiques de palier IIb, ce qui lui confère une indication contre les douleurs viscérales modérées à sévères et les douleurs somatiques faibles.
@@ -580,7 +596,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le butorphanol a un temps de demi-vie plasmatique d'environ 1,5 heure. La durée de son effet analgésique dispose d'une grande variabilité interindividuelle.
 Au bout d'1 heure, son pic de concentration sérique est maximal. Lorsque tous les récepteurs opioïdes μ et κ sont saturés, le butorphanol subit un effet plafond, aux doses de 0,5 à 0,6 mg kg−1, doses à partir desquelles l'effet sédanalgésique n'augmente plus.
@@ -614,7 +632,9 @@
           <t>Effets secondaires / Toxicologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le butorphanol a des indices thérapeutiques élevés : 16 (IV), 29 (IM) et 63 (SC). La DL50 chez le chien est de 50 mg kg−1. En cas d'intoxication aiguë, le butorphanol provoque les symptômes d'une dépression du système nerveux central (ataxie, convulsions, léthargie) et du système cardio-respiratoire (bradypnée, bradycardie), ainsi que des symptômes digestifs (constipation, diarrhée, anorexie).
 En cas d'intoxication aiguë, il est nécessaire d'administrer de la naloxone à la dose de 40 µg kg−1 par voie intraveineuse, intramusculaire ou sous-cutanée.
@@ -646,7 +666,9 @@
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le butorphanol ne doit pas être administré avec les opioïdes μ-agonistes, comme la morphine, qu'il antagonise. L'érythromycine et la théophylline sont susceptibles de diminuer le métabolisme du butorphanol.
 </t>
@@ -677,7 +699,9 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le butorphanol n'est pas (encore) inscrit en liste I des substances vénéneuses. Ce n'est pas un stupéfiant du point de vue de sa catégorie légale.
 En France, l'Agence nationale du médicament vétérinaire recommande un usage strictement réservé aux vétérinaires.
@@ -709,7 +733,9 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>En médecine vétérinaire, en France :
 Torbugésic
